--- a/Training/VMMC_MSD FY18Q2 Pivots_Training.xlsx
+++ b/Training/VMMC_MSD FY18Q2 Pivots_Training.xlsx
@@ -12586,432 +12586,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<p:Policy xmlns:p="office.server.policy" id="" local="true">
-  <p:Name>HQ Document</p:Name>
-  <p:Description/>
-  <p:Statement/>
-  <p:PolicyItems>
-    <p:PolicyItem featureId="Microsoft.Office.RecordsManagement.PolicyFeatures.PolicyAudit" staticId="0x0101000719DADD6E6D384B9CD115415321B530005252884372E99249996D41C07A2026D2|8138272" UniqueId="7e814d41-9678-4f1f-9083-bde14844e8ee">
-      <p:Name>Auditing</p:Name>
-      <p:Description>Audits user actions on documents and list items to the Audit Log.</p:Description>
-      <p:CustomData>
-        <Audit>
-          <Update/>
-          <View/>
-          <CheckInOut/>
-          <MoveCopy/>
-          <DeleteRestore/>
-        </Audit>
-      </p:CustomData>
-    </p:PolicyItem>
-  </p:PolicyItems>
-</p:Policy>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="HQ Document" ma:contentTypeID="0x0101000719DADD6E6D384B9CD115415321B530006DB7C337DF102C47AF1F5FB2314F9B46" ma:contentTypeVersion="35" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="cc3777fe17df6137eec1e87547a7bc2c">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="54e040e9-bc5a-4778-bc2d-f4c316b2e12b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afef35a930f331363557eb28e177761a" ns1:_="" ns2:_="">
-    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
-    <xsd:import namespace="54e040e9-bc5a-4778-bc2d-f4c316b2e12b"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:Activities" minOccurs="0"/>
-                <xsd:element ref="ns2:Program_x0020_Area" minOccurs="0"/>
-                <xsd:element ref="ns2:Planning_x0020_and_x0020_Reporting_x0020_Cycle" minOccurs="0"/>
-                <xsd:element ref="ns2:Fiscal_x0020_Year" minOccurs="0"/>
-                <xsd:element ref="ns2:Agencies" minOccurs="0"/>
-                <xsd:element ref="ns2:PEPFAR_x0020_Country" minOccurs="0"/>
-                <xsd:element ref="ns2:TaxKeywordTaxHTField" minOccurs="0"/>
-                <xsd:element ref="ns2:TaxCatchAllLabel" minOccurs="0"/>
-                <xsd:element ref="ns2:_dlc_DocIdPersistId" minOccurs="0"/>
-                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:_dlc_DocId" minOccurs="0"/>
-                <xsd:element ref="ns2:_dlc_DocIdUrl" minOccurs="0"/>
-                <xsd:element ref="ns2:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns1:_dlc_Exempt" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="_dlc_Exempt" ma:index="22" nillable="true" ma:displayName="Exempt from Policy" ma:description="" ma:hidden="true" ma:internalName="_dlc_Exempt" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="54e040e9-bc5a-4778-bc2d-f4c316b2e12b" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="Activities" ma:index="3" nillable="true" ma:displayName="Activities" ma:format="Dropdown" ma:internalName="Activities" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Choice">
-          <xsd:enumeration value="(None)"/>
-          <xsd:enumeration value="Communications"/>
-          <xsd:enumeration value="Event"/>
-          <xsd:enumeration value="Financial"/>
-          <xsd:enumeration value="Human Resources"/>
-          <xsd:enumeration value="Meeting"/>
-          <xsd:enumeration value="Planning"/>
-          <xsd:enumeration value="Records"/>
-          <xsd:enumeration value="Training"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="Program_x0020_Area" ma:index="4" nillable="true" ma:displayName="Program Area" ma:format="Dropdown" ma:internalName="Program_x0020_Area" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Choice">
-          <xsd:enumeration value="(None)"/>
-          <xsd:enumeration value="Prevention"/>
-          <xsd:enumeration value="Care"/>
-          <xsd:enumeration value="Treatment"/>
-          <xsd:enumeration value="Systems and Governance"/>
-          <xsd:enumeration value="Cross Cutting"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="Planning_x0020_and_x0020_Reporting_x0020_Cycle" ma:index="5" nillable="true" ma:displayName="Planning and Reporting Cycle" ma:format="Dropdown" ma:internalName="Planning_x0020_and_x0020_Reporting_x0020_Cycle" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Choice">
-          <xsd:enumeration value="(None)"/>
-          <xsd:enumeration value="Archive"/>
-          <xsd:enumeration value="APR"/>
-          <xsd:enumeration value="COP"/>
-          <xsd:enumeration value="HOP"/>
-          <xsd:enumeration value="OPU"/>
-          <xsd:enumeration value="Pre-COP"/>
-          <xsd:enumeration value="SAPR"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="Fiscal_x0020_Year" ma:index="6" nillable="true" ma:displayName="Fiscal Year" ma:format="Dropdown" ma:internalName="Fiscal_x0020_Year" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Choice">
-          <xsd:enumeration value="(None)"/>
-          <xsd:enumeration value="2023"/>
-          <xsd:enumeration value="2022"/>
-          <xsd:enumeration value="2021"/>
-          <xsd:enumeration value="2020"/>
-          <xsd:enumeration value="2019"/>
-          <xsd:enumeration value="2018"/>
-          <xsd:enumeration value="2017"/>
-          <xsd:enumeration value="2016"/>
-          <xsd:enumeration value="2014"/>
-          <xsd:enumeration value="2013"/>
-          <xsd:enumeration value="2012"/>
-          <xsd:enumeration value="2011"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="Agencies" ma:index="7" nillable="true" ma:displayName="Agency" ma:format="Dropdown" ma:internalName="Agencies" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Choice">
-          <xsd:enumeration value="(None)"/>
-          <xsd:enumeration value="All"/>
-          <xsd:enumeration value="Commerce"/>
-          <xsd:enumeration value="Defense"/>
-          <xsd:enumeration value="Labor"/>
-          <xsd:enumeration value="HHS/CDC"/>
-          <xsd:enumeration value="HHS/FDA"/>
-          <xsd:enumeration value="HHS/HRSA"/>
-          <xsd:enumeration value="HHS/NIH"/>
-          <xsd:enumeration value="HHS/OGA"/>
-          <xsd:enumeration value="HHS/SAMHSA"/>
-          <xsd:enumeration value="Other"/>
-          <xsd:enumeration value="Peace Corps"/>
-          <xsd:enumeration value="State"/>
-          <xsd:enumeration value="Treasury"/>
-          <xsd:enumeration value="USAID"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="PEPFAR_x0020_Country" ma:index="8" nillable="true" ma:displayName="OU" ma:internalName="PEPFAR_x0020_Country" ma:readOnly="false">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoice">
-            <xsd:sequence>
-              <xsd:element name="Value" maxOccurs="unbounded" minOccurs="0" nillable="true">
-                <xsd:simpleType>
-                  <xsd:restriction base="dms:Choice">
-                    <xsd:enumeration value="(None)"/>
-                    <xsd:enumeration value="All"/>
-                    <xsd:enumeration value="Angola"/>
-                    <xsd:enumeration value="Asia Regional Program (ARP)"/>
-                    <xsd:enumeration value="Botswana"/>
-                    <xsd:enumeration value="Burma"/>
-                    <xsd:enumeration value="Burundi"/>
-                    <xsd:enumeration value="Cambodia"/>
-                    <xsd:enumeration value="Cameroon"/>
-                    <xsd:enumeration value="Caribbean Region"/>
-                    <xsd:enumeration value="Central America Region"/>
-                    <xsd:enumeration value="Central Asia Region"/>
-                    <xsd:enumeration value="Cote d' Ivoire"/>
-                    <xsd:enumeration value="Democratic Republic of the Congo"/>
-                    <xsd:enumeration value="Dominican Republic"/>
-                    <xsd:enumeration value="Ethiopia"/>
-                    <xsd:enumeration value="Ghana"/>
-                    <xsd:enumeration value="Guyana"/>
-                    <xsd:enumeration value="Haiti"/>
-                    <xsd:enumeration value="HQ"/>
-                    <xsd:enumeration value="India"/>
-                    <xsd:enumeration value="Indonesia"/>
-                    <xsd:enumeration value="Kenya"/>
-                    <xsd:enumeration value="Lesotho"/>
-                    <xsd:enumeration value="Malawi"/>
-                    <xsd:enumeration value="Mozambique"/>
-                    <xsd:enumeration value="Namibia"/>
-                    <xsd:enumeration value="Nigeria"/>
-                    <xsd:enumeration value="PNG"/>
-                    <xsd:enumeration value="Russia"/>
-                    <xsd:enumeration value="Rwanda"/>
-                    <xsd:enumeration value="South Africa"/>
-                    <xsd:enumeration value="South Sudan"/>
-                    <xsd:enumeration value="Swaziland"/>
-                    <xsd:enumeration value="Tanzania"/>
-                    <xsd:enumeration value="Uganda"/>
-                    <xsd:enumeration value="Ukraine"/>
-                    <xsd:enumeration value="Vietnam"/>
-                    <xsd:enumeration value="Zambia"/>
-                    <xsd:enumeration value="Zimbabwe"/>
-                  </xsd:restriction>
-                </xsd:simpleType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="TaxKeywordTaxHTField" ma:index="10" nillable="true" ma:taxonomy="true" ma:internalName="TaxKeywordTaxHTField" ma:taxonomyFieldName="TaxKeyword" ma:displayName="Enterprise Keywords" ma:readOnly="false" ma:fieldId="{23f27201-bee3-471e-b2e7-b64fd8b7ca38}" ma:taxonomyMulti="true" ma:sspId="a0048e47-9258-427b-b476-27e0ab29a8e1" ma:termSetId="00000000-0000-0000-0000-000000000000" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="true" ma:isKeyword="true">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAllLabel" ma:index="11" nillable="true" ma:displayName="Taxonomy Catch All Column1" ma:description="" ma:list="{2cc5ae64-a620-450e-845b-f73f3eb4e805}" ma:internalName="TaxCatchAllLabel" ma:readOnly="true" ma:showField="CatchAllDataLabel" ma:web="54e040e9-bc5a-4778-bc2d-f4c316b2e12b">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="_dlc_DocIdPersistId" ma:index="12" nillable="true" ma:displayName="Persist ID" ma:description="Keep ID on add." ma:hidden="true" ma:internalName="_dlc_DocIdPersistId" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Boolean"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="16" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:description="" ma:hidden="true" ma:list="{2cc5ae64-a620-450e-845b-f73f3eb4e805}" ma:internalName="TaxCatchAll" ma:readOnly="false" ma:showField="CatchAllData" ma:web="54e040e9-bc5a-4778-bc2d-f4c316b2e12b">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="_dlc_DocId" ma:index="18" nillable="true" ma:displayName="Document ID Value" ma:description="The value of the document ID assigned to this item." ma:internalName="_dlc_DocId" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="_dlc_DocIdUrl" ma:index="19" nillable="true" ma:displayName="Document ID" ma:description="Permanent link to this document." ma:hidden="true" ma:internalName="_dlc_DocIdUrl" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:URL">
-            <xsd:sequence>
-              <xsd:element name="Url" type="dms:ValidUrl" minOccurs="0" nillable="true"/>
-              <xsd:element name="Description" type="xsd:string" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="21" nillable="true" ma:displayName="Shared With" ma:description="" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="13" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxKeywordTaxHTField xmlns="54e040e9-bc5a-4778-bc2d-f4c316b2e12b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <Program_x0020_Area xmlns="54e040e9-bc5a-4778-bc2d-f4c316b2e12b" xsi:nil="true"/>
-    <TaxCatchAll xmlns="54e040e9-bc5a-4778-bc2d-f4c316b2e12b"/>
-    <Planning_x0020_and_x0020_Reporting_x0020_Cycle xmlns="54e040e9-bc5a-4778-bc2d-f4c316b2e12b" xsi:nil="true"/>
-    <Activities xmlns="54e040e9-bc5a-4778-bc2d-f4c316b2e12b" xsi:nil="true"/>
-    <Agencies xmlns="54e040e9-bc5a-4778-bc2d-f4c316b2e12b" xsi:nil="true"/>
-    <_dlc_DocIdPersistId xmlns="54e040e9-bc5a-4778-bc2d-f4c316b2e12b" xsi:nil="true"/>
-    <Fiscal_x0020_Year xmlns="54e040e9-bc5a-4778-bc2d-f4c316b2e12b" xsi:nil="true"/>
-    <PEPFAR_x0020_Country xmlns="54e040e9-bc5a-4778-bc2d-f4c316b2e12b"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{395B3E43-F24E-44EA-93EB-00BD0A4A79B6}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB84213-2D6B-4BAF-B389-8329E49DA3CC}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F275004-9736-4938-9FF2-C3CB51EAF935}"/>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECB5BE51-3CE0-4591-819A-1554938C0ABB}"/>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3AB8D95-8C9E-4056-AE7E-4B9A0546C088}"/>
 </file>